--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/33_Gaziantep_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/33_Gaziantep_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6677013-1688-4445-B1B9-DEB86B071F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF151BC-8DDA-4ECE-A2B6-27F5177F1A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17C34846-C0BE-4A35-A5A7-BB3688EB3F3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDCC0D8C-03DA-4F8C-A736-4C12AA7D60A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{E43DFE19-19AF-44B5-AD99-2B1AEE9B8BDF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{3098C34E-6E30-4B61-AE17-82F1B2C0F8D2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{83352EBD-EA78-4BAC-81E2-C60EF1BB92EC}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{1CB09DA8-55DA-4010-8CAA-DA4C8675132C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B4895E2B-9974-4B78-868F-1368D3E95FA0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{72C4C1DA-8563-4465-9ECC-B74D9A0A54D9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{016559D8-7607-423E-9FFD-9A7F9E9FF135}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{7E4E6695-F0DE-424B-A996-22FF1CE97D99}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B87E8D5-0D97-4634-A18D-19EC807D96E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918EA6-5029-4F4D-AADD-3E7BD22F5482}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2483,18 +2483,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E7542A44-CBE6-415F-95A0-5B357F865045}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1B755C31-DA7B-4D1C-B2DC-7A21FEEB52F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3D7CCBFA-1760-46A8-A3B1-C6F4311D33EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5AF9966A-1BA7-494A-A7E1-22C9C06FA258}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D90E14D4-0E62-48B5-BACB-04F5046E9E67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8B001ED-CB08-4010-A08B-F264AD7A0067}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BBE0BEE0-435F-4C42-86E0-1834D42FA62E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D900E212-917B-435F-91C6-99A20A542639}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2211C312-FB87-4422-90BA-718ECC1B20B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DEBC1F6C-4AD6-49B9-AAFF-E5CA3791BBA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34D934F4-26F9-49E2-8998-7176F9AE7771}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F27911C1-0601-45BC-A445-925521EC6DF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{92A69669-2EA5-48B3-B917-48302E416D56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{27727BBE-B1E8-4267-A022-C9043DA6FD54}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8E78530C-E07D-4425-98A2-D8720B236191}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0CEAC0F7-B93D-4F41-9101-F886B77D43F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9DDF9A18-BDB2-4366-9403-165C67DBF3F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B4DC16BC-8E87-4EFF-B4E4-D7B6109148AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DE714B42-79C5-4C0A-9368-129D43E13A75}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B64B9609-9881-465D-ACFE-E274C8EFEE05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5D8D5676-5A2B-4A70-8C73-BE67CEEF5C37}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29ED8AED-3C54-41DB-9A6D-71AD88C24B02}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3F538F84-9884-4FF2-9A4B-A91966E6082F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C52EFCCC-88C8-44B7-8427-C7E7C08C2F53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2507,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CA4D31-A365-4F05-960A-3FFC78C79712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93CEFC5-57BC-4A45-A4EA-65639FB86087}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3726,18 +3726,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0122A348-977A-4D26-BE41-0A7B6DD8AE14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1CC709F9-5B29-4EEB-AB7C-5D440830F50B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D8BB9310-6C4F-4630-A722-07259EFFAF01}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{50C05E63-CE90-4D74-A6F1-66FC19F173B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ACD2E363-04FF-420A-BE3B-82A162F7999A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F02D060E-7B2C-443E-919B-CD66679BA7A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5142A8F-59D7-435E-8F22-06C2A7D82185}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E4DF9714-7278-4F20-8661-0E8F80114C85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0C128212-3BEA-4F59-B97B-4F4537C8C50C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{651C8F3D-C98B-42BF-87A4-13C92F938373}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BB0CC034-8E60-41C2-9595-C8C9D999C698}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{897A739E-F924-41FB-9793-740EE7669018}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{17C975E3-1DD7-4E3D-BA4D-554E72C055AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB65D4AA-EE88-42C0-AC7B-64483B0C8397}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{28E4958B-3F85-4949-BE9F-50BD3EBF930E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{585EA3BB-5954-4039-A514-00BB5875A969}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3EDA15DF-215B-4BE2-AF0E-E640FCC432D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A5833A7-4709-4DA9-9290-0098F83FEE31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A255103-C01E-46DD-9000-FF4BF84A6DE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D077A633-69DE-4B31-B2E4-D0FE1BB883D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{75677CD2-B36A-4940-BDAD-7115E16C9DE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{74A7ECBD-41B8-495A-A73E-1466FF2295FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E38D2E78-94DA-4585-9715-EA1FC3390484}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4F90ED57-5A2C-4ABF-8BA0-A91D690BBAB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3750,7 +3750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F74CE77-926C-413A-9125-B54020970E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC090FB-C12D-4FA4-9B83-0BEB19A8EEF4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4961,18 +4961,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45756C1A-5AEA-48AB-869B-BD08F97B7A3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CD2F80AC-B04A-4DFE-AB11-E40CB4C318CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{573F7059-B347-45E4-854D-2AB8D40B853A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A3AAD3E-85AF-48C0-8DCB-63281D9DF033}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9109B607-9A45-40AA-A610-636D9CBADAD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A927FE7D-F54B-47F7-A674-26CA9B05B31F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5EFE3262-E04E-43D7-B7B8-7B4861FE45EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E051C11-9604-49B6-BA24-F48A2B620B8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF8CD2B9-1AA0-4812-BE4C-F0D995DBD876}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6E6360A7-FEF8-49EC-830F-3D08CAADED45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34C9C1C5-6538-4FEA-963E-B39DF68CBFB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CFDE93A9-9DEA-478E-AB00-6C2225400D5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4F3E5CE3-D4C6-423B-B5CE-7F43EA42B2D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8926B261-EB46-4368-AD76-4517EB7D6FAB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E7B295C8-3760-4FF0-A65B-E90F1A6305C7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4CE39B16-01F0-4119-811C-9307496EBF38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DB825B92-195F-471C-B33C-824C3E117295}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{452E0EB7-8BD7-436D-800D-4B2DFEA34443}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{30FFBCC0-CE9C-436B-A706-0B89881A5F2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7A7029D5-3A56-4942-80C6-5D43CF805D1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CCD6FDD6-D326-45CF-8778-CFE86E95643F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{11E32A21-C54C-4FAC-9679-AA7840BBC4B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{72F48BEA-D9E2-4396-B6CE-CB3AA4D8B2C9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BFE2C5D5-FB1D-49CE-A6AD-3F18C9602988}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4985,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D595C-670E-4B00-AC01-F8CAC316B9C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3062FC-6FE7-42F3-B6CE-078BE538E069}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6196,18 +6196,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{36EB9B34-7F2D-49A2-B877-71E4DD0974E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{10DA9F74-556B-4695-856F-A0D7A9DD785F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81FED306-A953-400D-9C5B-ACD8E5A1974F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9EFBDA48-D54C-477A-B78E-2BB8E55061CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2729C64E-C4F1-46D3-8AB1-E7FF1C82C5D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5F76D748-E478-462F-BFD0-0A1B4E84DE06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{24819FFF-2218-412F-8EAA-8316D215B73D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D13FFC7-1812-43F0-A3E3-B356958F4C44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AA4DDBB9-33E3-434C-9BA1-C49285EA9933}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DDE1916A-4718-4915-8230-334AEE6EC92C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7299D616-B56C-4121-9967-FABFF9C9E37F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BFBD6EFE-DBCA-4ADA-9E14-922D0D2FDA22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{961D9B2C-E873-407D-8E68-9FD859428D9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF69627D-1AF0-4294-9C89-AE4665B20AD1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{212CAC06-DE31-4663-BD93-20329718FBD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A55FA321-FF35-45AE-89D2-4A5D9D4317FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0341E3BE-C667-4921-A88A-2B629677D0A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3141765-9C06-4F48-B201-A6DB3B2FB4CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0FC183CD-499D-4C4D-847C-244497F632D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{27C7B950-567D-4012-997B-7D77A0912B77}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6CC5211B-DD6E-405C-97B2-9E48542A05CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D679A3D5-F84A-4486-8927-DA17A0AD66B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{56A9B5B7-838C-4DE7-802B-B69302401CF0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F6CA4EA2-1A5C-473C-AFD8-E4D28F9AEF45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6220,7 +6220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67300F66-432C-4FE8-9210-80639CB73A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E3C44A-A6EC-4981-A701-BBB1EBC55F36}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7469,18 +7469,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E553F739-AB0C-4B13-9617-26F5B8F4DA1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{980F0989-DD01-4D28-A037-455F7956BB51}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6C7A4C8A-E1FA-4DA1-9B43-B8DB0F81D1D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B7F7F37E-5A7E-49D8-9922-5A4AA6F99587}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{77E534B3-7272-45A3-9B1E-883D54CBCB6E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A2E728DE-0CCD-49AE-BD73-63365CC39E12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1702792E-95F9-46D3-BD5A-2B8839E7F8F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2AECD5E5-0E9B-47E6-8A6A-90C4B5033C28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1BEFC264-E822-4BCF-B1FB-117371DA452A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AE828313-0B03-4DAA-864B-9F9787847772}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9A4B724-AA25-4157-9DE7-DDF3D952823E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{37285CA0-561D-44EE-8666-8C3542C7C540}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E940EC5E-BF9D-4F10-A1B3-3542477D6224}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{76158E83-9306-471F-A096-963C5A767B02}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BF06EB81-EFBA-486F-AFC7-A706089F54C2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{070E23E4-69EE-4226-BECC-3AEA96F6BCB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F786A62F-6D9D-4F73-8C32-F484FD5AF374}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4BFB4E97-4F2C-453E-B64F-866A4F521EA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8EFFFF2C-90CD-4899-B1BF-E4D9CAEC2356}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D523EB13-5982-4BAF-BC17-21499F717B5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{252E7AED-FFEB-47B8-BA52-66857D15BD55}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC03D315-F69B-43BE-8924-92C02C94AEEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{782C6342-44E1-478A-9FFF-1943A4DD75B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D9614A90-9988-45F3-A697-CF2E1CEB2BED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7493,7 +7493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7370AA3-D645-4148-8BFE-B2812D6E056F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95699744-4CB5-45D2-ADCB-2265A0BEC9FC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8736,18 +8736,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C3661F52-65FF-4B7C-95CC-9BFA60300386}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B44AB681-C674-48BD-97F3-07358A22BD21}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D08359AF-C9B8-4587-BE4C-8289E867E5E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DA921B72-2A4F-449D-B45C-9BF2DF93AF2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{90ECDAA3-5A5E-424A-89DB-E5F2E4321574}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6F5B927E-13A1-43A3-ADED-98211F32B588}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{96E7B615-8AB8-4862-B08A-C630111E531D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7AF21F6F-BC13-4F7A-A4FF-47594C853210}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F4F9F70E-018C-4657-929C-7F860434EAC2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1369FCE7-BC6E-4EFE-966C-BAF23FD986EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DFE65B62-B8F3-4ABD-A6E0-7A386CF5A9B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FB1A0DE4-49D0-4E82-8186-6DDC6EAC8977}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D52778D1-6B5D-4E40-828C-3E5AC80B589A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{02B70600-F596-4F27-AC4A-931AE3649646}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7208E403-7DA4-432C-9DC8-26746F4EF179}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B75B4BAA-90D6-4FB7-AF1C-45C8F9E3BAE9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7E3A163A-6702-4B2A-8DDF-92C3AC8CD9E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{95708740-438D-438E-9CDB-297A07C2C568}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{777EEA15-B191-4161-B77F-1682A50BA625}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0440D95E-655C-4A71-A3CC-B2B01346DF60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{00CC7F45-6A08-42B0-8932-88FC429810FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{46000E0B-D0A1-4E13-B0FD-934C54AD47BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C0DBBA6-AA6A-4FAF-889C-8DA1443D5C0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D659E75D-1B28-4757-82FA-A1E65673CAF7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8760,7 +8760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0A1DD0-0A59-4D60-BA63-271CADFFFA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4162D-4387-43A8-B3A4-892CF74243EB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9995,18 +9995,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{884AA4A4-FD07-48FD-A24E-9994BCB7E3CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{46B729F8-4841-4F50-B59E-56594EF3A7AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{75F46719-B2BE-4A7A-AA31-FC03B369B9B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C5079C65-7E20-4147-B80C-E88C37FE9C44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{69B32D85-6FBA-4161-9D3F-4093753D2641}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{39684AAC-857E-46AA-B895-B6BE57141D0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{22FB6AC0-83BE-4C43-B7D3-A173D4DBA893}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2E18AE16-6EDB-4A9E-9DDB-EECD8ABFEAF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{71B67993-AC50-466C-BC5C-904AED926E31}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA3A9A6A-48D1-49B9-B778-163F72D3713C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D1C910E0-BCFA-47AE-940F-B6291C896ACA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{10E82320-8C25-4001-825E-C288E8523E4D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{062A025F-2F14-4953-A144-73B870DFF5AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6AC4CC5F-3386-4C3C-B9CB-623F27B2932A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{50F2513B-1C98-48C7-8426-8028651B593F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{81B8C6CF-2795-47E5-89A1-A0A64C461A79}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A9C2914A-1C5B-42B8-A9EF-6EEB278CD5AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D8851703-53CB-4B6C-88DF-4E2CF6378019}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8530E1A1-842F-4A7D-865A-1D87823EA0DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFA61864-DBA8-4AD4-BD69-F8208C715AAE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C15631C6-E4DC-467C-82E8-897CBD9A7A7B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3267A19C-1104-428F-BFB9-C0BA83D40AEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{398BFCE1-EED0-4A6B-93BD-3EBBD97BD8C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CBA449D0-EFE7-46C7-A70A-4929D9B87DA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10019,7 +10019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B895E9E9-167B-4DC7-9410-32C8158E6A5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECAD3E-96C9-468B-A52D-AAE75DC28E13}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11254,18 +11254,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7C6D386-4067-465B-B34A-1C520FC485DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC5EC696-1357-4087-8490-E417F5FFDB97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D1ADFEF3-2B31-462B-8CEA-6A08E9E17C51}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0149BC6A-0CB5-4A65-BA0F-259A26DAB8E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A49DA9C3-2C68-4393-A176-59CF5D06D839}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A6D6E13-E9E4-49F6-A598-A98C0E01A4DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6705E158-1E4D-49BE-A70F-F3FAB858CAC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ACCC8B90-96AD-475E-97C6-58CC3A09C202}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{747DCD6E-48FC-4922-B97D-25AE3D27FD37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{609BC8E6-7FCC-4006-B0D9-D483083D1092}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2A662F07-E080-4F5F-B4ED-74E49BD91914}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B813AD4-A6AA-404A-8243-0BDFFAB2BA04}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C37EFE92-9F21-4FFB-B51C-7FE42A21FE4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1B60E1FB-8AE3-483F-9A7C-90F7DAA95536}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1E3B57D1-DB0F-4B19-ACFB-58E3C35D19BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4D1536A6-58F5-4E6F-9B78-F9A44EB8D440}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07ED3F32-BD70-44E3-9898-55793C5393E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2F9977CC-8559-4A95-94AA-D2024395CB8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{53F81F8C-A0E0-499D-AAD4-97E81E443466}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D851E9E4-AE91-4FA2-8464-335968FF1E3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{71A7BCCE-A15D-4609-B384-ED2702A83916}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AEDC1E6C-D804-4AC5-8407-FBF7ED428D1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55323825-582F-4AF3-8D4C-9EEA897D2042}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B06044BE-CFA5-4937-8709-70587A9CE7DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11278,7 +11278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E480EF-A9DF-463C-AE9D-CA9419144DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9B4405-B646-4020-93B0-8453A7A8FF21}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12509,18 +12509,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63C3FD29-0BD4-410B-A100-240100DAF92C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CDC429E8-54A0-4FF8-A9FA-5A4A5BEB1FED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{90130647-714D-4F97-9708-3C8762831BE7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FAB1EB6B-FB8E-4040-BEB1-BC800D8AE12C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C4966C8A-2EB3-491D-80B2-AAEE0BC54003}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CFBACC26-51EB-434F-9CAF-AC4253C62DE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{15D8C766-5750-4CA9-AC2C-25051F3ACAAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9508EAD1-B2D0-49AA-B237-C374597A61DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1FB7BBC2-7C1D-413E-9CD1-1418FAA12685}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99B8FB5A-00FF-45E9-8F23-923B1B559095}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D5975EE3-803C-4B32-8A81-3263F927FAF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9971BB4F-9CA5-48F3-A078-1FA7D54BEA4A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3E708CA-442A-4056-AE2C-957062277681}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8200C665-ECEA-4111-9F1D-7EB617B715FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E0CC80E4-7299-46C8-9460-34E0A6EF01E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A8BE3222-3BDD-4D07-A2F1-43CBBD144ABD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{611F9004-A619-4B12-90F1-A3E54E62B140}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A295941C-C146-4689-B6AA-FC374503DEAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{88D4144F-C006-4490-8836-7AE87123E694}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CAD52754-8B44-481F-8F22-B6BAF8535831}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8EAC750E-5A0A-4BCB-AB47-D95002820BF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{847993A2-C421-4DA5-9237-61BDA6BAF8FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1C3CE2AF-75D3-4375-ACA3-3B8376F79D51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{06196084-9F4E-4E12-88A5-66EC4D83796A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12533,7 +12533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4118E8B9-C8F3-4562-9AE9-BEBCDDAE4380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931FE70A-2EC4-4BCE-93DA-DFBE592CC62A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13760,18 +13760,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D07876C4-1361-421C-8DA8-86138239B904}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BFEF5DBA-D084-41F2-B67A-80A20DDB1CC8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A5B12694-5A7C-4249-9C1B-237AF06F5854}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B242C21-9DC2-4BCC-ADE7-78F16B1E0A5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D7B7C182-5A9D-4E57-BFB7-C7978076E7B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FF50D285-26C5-43A7-9133-EF415C87863C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{97195F1C-FD71-4E11-9902-F969166910FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25DAAF63-2114-4F63-89B9-ADEE973771F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{24E558E5-60C6-46AB-9D01-261487EC7CF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{127EB660-72E2-4579-9564-506BB811934C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4DB9C3ED-F9D6-479C-8054-50E3F2ACA174}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{13FB17F5-4A69-4E19-8BFC-48713ECA8B0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B963339D-589E-42E6-A576-C0884F72E08E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC478A71-3048-48E0-A7F3-CB71816A8EBF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CEEF93C9-2CAA-47C8-A0E6-15A8547087FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B6056962-E38A-4C0E-AAA8-96B8F639B416}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C28EC6B5-0D33-4EC9-B45E-AF4D9AD4D4A7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51724BE4-CF34-4BF8-B580-5FD767ECDB80}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DA6DF78B-D0ED-4F3A-9AF9-DEE3F87DBF4A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3CAAE0F7-28D8-46A3-8B1F-33546744F17A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6DBC9AA3-112B-4255-AD85-FBFBFF32802D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{15E95250-7D37-4DD2-8CB7-F39642C1C919}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE46110D-A29E-4D1D-8A89-882B7230BF4A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{492DEA41-A01D-44B8-A289-00255118A1E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13784,7 +13784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DE8E0B-CFB3-4F82-BACF-F227E16C6C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679647B9-99D0-4336-8C64-E9A18F5EE736}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15007,18 +15007,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FCFF9CAE-33A1-4465-84C7-FFFB5808716F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{40F0BE5F-A4F0-4478-B4F3-7F463D5AB3AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6A7C8C54-C04E-411F-BF88-AB0949E52F61}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D73E5211-9133-436D-9A9C-AF550D830611}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{101D292B-AB72-47B4-A1DB-530835DD315D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{067CC997-1AE8-4813-9846-867ED91FA02C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E39F34F-4338-456E-B608-1E01DD42DC45}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FAD6F335-6B4C-4CD3-94F2-AA9C0BAE0518}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{65D17A25-4789-4418-97C5-B0EE02A40AE0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10E8A040-1E1A-4C71-9964-5F73BBC98311}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33E1D865-8195-4933-8CF0-631A1CAAA987}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0277AF34-4CB2-4ADD-B70C-E62358854F4E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C0205E2E-D51C-4E3A-B607-F5775CE7EC4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DA634EFA-F212-403A-890F-3780954A85DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A2FAC3A9-6F9D-48B0-897B-08F0CC0D9ED7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C135C575-D1DC-4FA5-90CA-3BAFAF8B36B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DC426C05-9DA0-42A1-A5B3-EEC1FED8AC03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{185079E4-CE35-4CAD-9B07-6BB88C855427}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{59C575CF-A808-47EE-A2AF-38871A94D758}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{41CEB5EC-B4A8-403B-BB7A-9F666482B1B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9483DEA4-46C1-4A90-B751-0153BD8067D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2220D50E-5DE9-4A49-B882-547CDA6427DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0686739F-2601-4B08-8C4F-3D23CBF4983F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D96B993C-0DED-4009-981B-51532DB2F065}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15031,7 +15031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE44ECFE-FC4A-4266-BD49-63F861ABD8D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C803DB-2C67-444A-8246-1BA6005E6AF9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16250,18 +16250,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EC2E1EFE-C0FE-412B-BDD6-376EEBA0FB29}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC3C60EA-CEAF-4B13-BA21-1FF5B3712DB4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{550C393B-EAFF-4E0E-A669-53DFE5345992}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{685A46CB-3C66-4A93-9FE3-7A93291C70B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01674D71-1ED1-4C30-A8E0-A251C2DAAFB4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0B7550A0-8317-4BA5-B646-FF4D2A08DC32}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{67A522A1-37DA-42F8-9A50-5C8BA1FF3B46}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A2D49E60-4F46-4499-B454-670726972FB5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E4F2EF9F-6052-429C-998A-A477F2EBAECC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8F5037D0-57CA-4C77-94C4-35E9E516FDA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{419612E4-E877-46BA-BE97-D56DFF2E06C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A6CA4C8E-6C30-460C-8B5F-43BE4A900E46}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0A89166D-A960-4815-8385-7A36A5DB6ADC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7D36F4C6-ABA3-4E83-929B-F619455EDEE0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{54B1B6AF-2591-4059-BC07-0EF0CF1C3CC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CCDF6A96-9787-400F-AAC0-857BBE8B8FE2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1C6B8B1-50EA-417E-B619-FD859EADAB1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8C66F6B3-2A26-4203-86FE-D394DD3B0C92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4EA1DD18-387A-4A8A-A1A2-C15CCA6AA9D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D759A267-10B8-48E2-BA7D-6FBF1D5399EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{53D072A7-9C99-4CF5-8C80-C7F9925698B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B371EAE8-3A4B-40D5-BFFE-0512637C8A5E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BC0454FA-517C-44EC-BAD9-57A522015075}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC996393-EBFF-4F08-AEE4-D8A7BDB1004B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
